--- a/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
@@ -114,7 +114,7 @@
   <si>
     <t>报警/解除报警上报给Host
 alarm_code的数据类型：BINARRY
-alarm_id的数据类型：I4
+alarm_id的数据类型：U4
 alarm_text的数据类型：ASCII</t>
   </si>
   <si>
@@ -3108,7 +3108,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>

--- a/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -3105,10 +3105,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -4023,10 +4023,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4966,9 +4966,9 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>

--- a/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
+++ b/equipment_cyg/product/zhong_che_zhu_zhou/zhong_che_zhu_zhou_manual.xlsx
@@ -4024,9 +4024,9 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4966,9 +4966,9 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
